--- a/Code/Photologic Rig Main Application Code/licks.xlsx
+++ b/Code/Photologic Rig Main Application Code/licks.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,965 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trial Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Port Licked</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time Stamp</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>28682.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TRIAL START</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34.91037344932556</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35.13132572174072</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35.4644603729248</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35.90651750564575</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>41465.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TRIAL END</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>72365.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TRIAL START</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>80.58917593955994</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>80.81266236305237</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>81.03316378593445</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>94039.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TRIAL END</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>81.36174416542053</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>127820.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TRIAL START</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>136.208991765976</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>136.4293298721313</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>136.7571296691895</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>146480.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TRIAL END</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>137.8538110256195</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>180512.0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TRIAL START</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>186.3328211307526</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>186.6627225875854</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>186.9975616931915</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>193767.0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TRIAL END</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>187.2190585136414</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>221595.0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TRIAL START</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>229.018700838089</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>229.3475453853607</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>229.5676620006561</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>237083.0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TRIAL END</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>229.8997530937195</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>272665.0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TRIAL START</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>278.4516131877899</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>278.7816934585571</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>279.1131322383881</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>292705.0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TRIAL END</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>279.445652961731</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>328411.0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TRIAL START</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>336.1528828144073</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>336.5932788848877</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>337.1449131965637</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>347327.0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TRIAL END</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>338.2510743141174</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>381476.0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TRIAL START</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>387.9312345981598</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>388.263979434967</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>388.5949172973633</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>394006.0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TRIAL END</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>8</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Stimulus Two</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>388.8166604042053</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>